--- a/techniqo/data_new_ticker/ICRA.xlsx
+++ b/techniqo/data_new_ticker/ICRA.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1347"/>
+  <dimension ref="A1:G1349"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47531,6 +47531,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="1348">
+      <c r="A1348" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B1348" t="n">
+        <v>2763.3</v>
+      </c>
+      <c r="C1348" t="n">
+        <v>2814.95</v>
+      </c>
+      <c r="D1348" t="n">
+        <v>2711</v>
+      </c>
+      <c r="E1348" t="n">
+        <v>2747.4</v>
+      </c>
+      <c r="F1348" t="n">
+        <v>1127</v>
+      </c>
+      <c r="G1348" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="1349">
+      <c r="A1349" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B1349" t="n">
+        <v>2747.45</v>
+      </c>
+      <c r="C1349" t="n">
+        <v>2810</v>
+      </c>
+      <c r="D1349" t="n">
+        <v>2737.3</v>
+      </c>
+      <c r="E1349" t="n">
+        <v>2762.55</v>
+      </c>
+      <c r="F1349" t="n">
+        <v>690</v>
+      </c>
+      <c r="G1349" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/ICRA.xlsx
+++ b/techniqo/data_new_ticker/ICRA.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1349"/>
+  <dimension ref="A1:G1351"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47581,6 +47581,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="1350">
+      <c r="A1350" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B1350" t="n">
+        <v>2794.95</v>
+      </c>
+      <c r="C1350" t="n">
+        <v>2794.95</v>
+      </c>
+      <c r="D1350" t="n">
+        <v>2737.4</v>
+      </c>
+      <c r="E1350" t="n">
+        <v>2749.05</v>
+      </c>
+      <c r="F1350" t="n">
+        <v>18523</v>
+      </c>
+      <c r="G1350" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="1351">
+      <c r="A1351" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B1351" t="n">
+        <v>2790</v>
+      </c>
+      <c r="C1351" t="n">
+        <v>2804.1</v>
+      </c>
+      <c r="D1351" t="n">
+        <v>2750</v>
+      </c>
+      <c r="E1351" t="n">
+        <v>2790.95</v>
+      </c>
+      <c r="F1351" t="n">
+        <v>1252</v>
+      </c>
+      <c r="G1351" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
